--- a/branches/transfer-out-resource_fig-17/StructureDefinition-hiv-patient.xlsx
+++ b/branches/transfer-out-resource_fig-17/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T07:02:51+00:00</t>
+    <t>2023-02-02T11:55:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/transfer-out-resource_fig-17/StructureDefinition-hiv-patient.xlsx
+++ b/branches/transfer-out-resource_fig-17/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T11:55:49+00:00</t>
+    <t>2023-02-02T11:57:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/transfer-out-resource_fig-17/StructureDefinition-hiv-patient.xlsx
+++ b/branches/transfer-out-resource_fig-17/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T11:57:26+00:00</t>
+    <t>2023-02-06T06:48:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/transfer-out-resource_fig-17/StructureDefinition-hiv-patient.xlsx
+++ b/branches/transfer-out-resource_fig-17/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-06T06:48:12+00:00</t>
+    <t>2023-02-06T06:48:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/transfer-out-resource_fig-17/StructureDefinition-hiv-patient.xlsx
+++ b/branches/transfer-out-resource_fig-17/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-06T06:48:27+00:00</t>
+    <t>2023-02-06T11:47:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/transfer-out-resource_fig-17/StructureDefinition-hiv-patient.xlsx
+++ b/branches/transfer-out-resource_fig-17/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-06T11:47:33+00:00</t>
+    <t>2023-02-06T11:48:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
